--- a/medicine/Sexualité et sexologie/Sexologue/Sexologue.xlsx
+++ b/medicine/Sexualité et sexologie/Sexologue/Sexologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sexologue  est une personne pratiquant la sexologie.
 </t>
@@ -511,9 +523,11 @@
           <t>Reconnaissance et réglementation du titre de sexologue en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme le précise une enquête de l’INSERM[1], l’usage du titre de sexologue n’est pas encore réglementé en Europe de façon globale. En revanche, des procédures d’habilitation, de validation de la formation ont été mises place récemment en France sans pour autant établir aucune obligation[2]. Le titre de sexologue reste libre d'usage.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le précise une enquête de l’INSERM, l’usage du titre de sexologue n’est pas encore réglementé en Europe de façon globale. En revanche, des procédures d’habilitation, de validation de la formation ont été mises place récemment en France sans pour autant établir aucune obligation. Le titre de sexologue reste libre d'usage.  
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Formations existantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des formations en sexothérapie et sexologie, en direction des médecins, professionnels de santé et autres thérapeutes, s'organisent depuis 1996. Le DIU, Diplôme Inter-Universitaire, a été reconnu rapidement par la profession. Pour le corps médical, la décision du 17 avril 1997 du Conseil National de l'Ordre, autorisant les lauréats du DIU de le mentionner sur leurs ordonnances, constitue un pas décisif vers la qualification. La France, compte ainsi, des dizaines d’écoles et d'organismes privés proposant de formations de Sexologie et de Sexothérapie ouvertes aux thérapeutes non médecins. 
 Si l'exercice de la sexologie cherche encore ses repères institutionnels, son installation dans le vaste champ des exigences du grand public pour une "meilleure qualité de vie" n'est plus mise en doute, ce qui entraîne légitimement des pratiques professionnelles en lien avec cette demande, des colloques spécialisés, des associations de praticiens, médecins ou non (tels que l’AIHUS - Association Inter-Hospitalo Universitaire de Sexologie, qui organise chaque année des rencontres aux thèmes identiques de la formation). Le sexologue n'est cependant pas habilité à prescrire des traitements visant à améliorer la sexualité.
@@ -574,9 +590,11 @@
           <t>Publics des formations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre les sexologues de formation, le DIU de sexologie est ouvert aux professions suivantes[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les sexologues de formation, le DIU de sexologie est ouvert aux professions suivantes, :
 médecin généraliste
 psychologue
 psychomotricien
@@ -614,7 +632,9 @@
           <t>Outils et méthodes utilisés par les thérapeutes de couple</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sexologues utilisent la thérapie de couple, le conseil conjugal, les psychothérapies de "soutien", les sexothérapies de type Masters et Johnson, des approches psycho-corporelles, sexocorporelles (Jean-Yves Desjardins), des approches sexoanalytiques (Claude Crépeau), des approches cognitivo-comportementales, etc.
 Les sexologues traitent les problèmes posés dans l'exercice de la sexualité, que ce soit avant le rapport ou durant le rapport :
